--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_8_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_8_square_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.97000000000046</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>4.312217249946571e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>4.312217249946571e-12</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>56.14152307114762</v>
+        <v>60.26446669594556</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[45.47208323198542, 66.81096291030981]</t>
+          <t>[46.65140382809224, 73.87752956379887]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>1.66378022470326e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>1.66378022470326e-11</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4528686746331188, 1.8553950606786556]</t>
+          <t>[1.364816027685655, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T2" t="n">
-        <v>50.69970158762544</v>
+        <v>53.74910522302656</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.895684531387495, 57.50371864386339]</t>
+          <t>[44.9888845409387, 62.50932590511442]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X2" t="n">
-        <v>18.39631631631666</v>
+        <v>18.39031031031063</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.59647647647681</v>
+        <v>17.39891891891922</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.19615615615651</v>
+        <v>19.38170170170204</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.97000000000046</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.414601934537131e-12</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.414601934537131e-12</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>56.59979395808569</v>
+        <v>58.39243796071343</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[42.79469080287005, 70.40489711330133]</t>
+          <t>[46.086541846239285, 70.69833407518757]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.457982623520593e-10</v>
+        <v>2.108091479158247e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>1.457982623520593e-10</v>
+        <v>2.108091479158247e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.364816027685656</v>
+        <v>1.289342330302117</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1006580868432705, 1.628973968528041]</t>
+          <t>[1.0629212381515023, 1.5157634224527312]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.472155730652958e-13</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.472155730652958e-13</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>57.61396185648427</v>
+        <v>54.120657400825</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.44868850690236, 65.77923520606618]</t>
+          <t>[47.205736095946946, 61.035578705703045]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.54608608608645</v>
+        <v>19.67911911911946</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.49629629629664</v>
+        <v>18.7868668668672</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.59587587587626</v>
+        <v>20.57137137137173</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.97000000000046</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.583488978302739e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.583488978302739e-13</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>65.01000810665676</v>
+        <v>61.913232321692</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[53.11651892659276, 76.90349728672075]</t>
+          <t>[47.66963755438782, 76.15682708899618]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.353672812205332e-14</v>
+        <v>2.82167622600582e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>2.353672812205332e-14</v>
+        <v>2.82167622600582e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>1.289342330302117</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0880791372793466, 1.490605523324887]</t>
+          <t>[1.0503422885875784, 1.553500271144503]</t>
         </is>
       </c>
       <c r="R4" t="n">
+        <v>1.396660564978447e-13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.396660564978447e-13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>52.54860027007838</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>[44.35061201124144, 60.746588528915325]</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
         <v>2.220446049250313e-16</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>2.220446049250313e-16</v>
       </c>
-      <c r="T4" t="n">
-        <v>54.27579588671723</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>[47.36237550024519, 61.18921627318926]</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>19.8460260260264</v>
+        <v>19.62954954954989</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.04618618618654</v>
+        <v>18.63815815815848</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.64586586586626</v>
+        <v>20.6209409409413</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.97000000000046</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.103561686477406e-13</v>
+        <v>1.061369880872576e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>1.103561686477406e-13</v>
+        <v>1.061369880872576e-10</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>58.13507879504268</v>
+        <v>58.90899099554235</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[44.43629324905029, 71.83386434103508]</t>
+          <t>[40.93286384702785, 76.88511814405683]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.579958717305544e-11</v>
+        <v>3.997743314165803e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>5.579958717305544e-11</v>
+        <v>3.997743314165803e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9119738433844242</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.672973801669885, 1.1509738850989635]</t>
+          <t>[0.6603948521059619, 1.2641844311742707]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>9.931626632209145e-10</v>
+        <v>7.416098868340271e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>9.931626632209145e-10</v>
+        <v>7.416098868340271e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>50.573609642076</v>
+        <v>56.94136387705253</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.17243644789731, 57.97478283625469]</t>
+          <t>[47.55478097803929, 66.32794677606577]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>21.34572572572612</v>
+        <v>20.96792792792829</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.39591591591629</v>
+        <v>19.7782582582586</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.29553553553595</v>
+        <v>22.15759759759798</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.64000000000057</v>
+        <v>25.78000000000059</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6.063882729279158e-11</v>
+        <v>4.837574785199195e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>6.063882729279158e-11</v>
+        <v>4.837574785199195e-12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>59.23388268131049</v>
+        <v>55.25573442890708</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[42.06861674569896, 76.39914861692202]</t>
+          <t>[40.152743394949375, 70.35872546286478]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.207636124433975e-08</v>
+        <v>2.901709539315789e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>1.207636124433975e-08</v>
+        <v>2.901709539315789e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5975001042863468</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.2956053147521924, 0.8993948938205012]</t>
+          <t>[0.4842895582110387, 1.0126054398958093]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0002434624351947967</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0002434624351947967</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>55.71155256844992</v>
+        <v>53.77337112878034</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.70527310526776, 64.7178320316321]</t>
+          <t>[46.009154790192085, 61.537587467368596]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>23.20176176176228</v>
+        <v>22.70910910910963</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9698098098103</v>
+        <v>21.62526526526576</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.43371371371426</v>
+        <v>23.7929529529535</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.64000000000057</v>
+        <v>25.78000000000059</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.609024107869118e-14</v>
+        <v>4.907185768843192e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.609024107869118e-14</v>
+        <v>4.907185768843192e-14</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>61.17815928699967</v>
+        <v>64.0292610328674</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[48.82651861560804, 73.5297999583913]</t>
+          <t>[50.2086713060349, 77.84985075969989]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.606626274357041e-13</v>
+        <v>4.344524739963163e-12</v>
       </c>
       <c r="O7" t="n">
-        <v>5.606626274357041e-13</v>
+        <v>4.344524739963163e-12</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2201316173686543</v>
+        <v>0.3333421634439615</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.006289474781961957, 0.4339737599553466]</t>
+          <t>[0.10692107129334527, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.04389459646576865</v>
+        <v>0.004825303314059726</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04389459646576865</v>
+        <v>0.004825303314059726</v>
       </c>
       <c r="T7" t="n">
-        <v>53.88137525006537</v>
+        <v>56.35304360778357</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.66306046587097, 61.099690034259766]</t>
+          <t>[48.67298983912369, 64.03309737644345]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>24.74170170170225</v>
+        <v>24.41229229229285</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.8690690690696</v>
+        <v>23.48328328328382</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.6143343343349</v>
+        <v>25.34130130130189</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.64000000000057</v>
+        <v>25.78000000000059</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.001421168211891e-13</v>
+        <v>1.389999226830696e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>1.001421168211891e-13</v>
+        <v>1.389999226830696e-13</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>58.65425323023498</v>
+        <v>63.80360675370871</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[46.05452301458318, 71.25398344588677]</t>
+          <t>[51.24117461331906, 76.36603889409837]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.760769473615255e-12</v>
+        <v>2.542410726391608e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>3.760769473615255e-12</v>
+        <v>2.542410726391608e-13</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2138421425866923</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 8.881784197001252e-16]</t>
+          <t>[-0.25786846606042246, 0.15723686954903826]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.05000000044112851</v>
+        <v>0.6277312811237863</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05000000044112851</v>
+        <v>0.6277312811237863</v>
       </c>
       <c r="T8" t="n">
-        <v>53.88038968053351</v>
+        <v>61.76932896621931</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.556645612975025, 61.204133748092]</t>
+          <t>[53.80341070927143, 69.73524722316718]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8726326326326515</v>
+        <v>0.2064464464464528</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.886579864025407e-15</v>
+        <v>-0.6451451451451554</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.745265265265306</v>
+        <v>1.058038038038061</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.64000000000057</v>
+        <v>25.78000000000059</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.725649788677288e-10</v>
+        <v>2.871036741680655e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>3.725649788677288e-10</v>
+        <v>2.871036741680655e-13</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.30679329233163</v>
+        <v>58.51066702663084</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[34.94157689521765, 67.67200968944562]</t>
+          <t>[44.233884771673175, 72.78744928158851]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.064493233560171e-07</v>
+        <v>1.473792199391255e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.064493233560171e-07</v>
+        <v>1.473792199391255e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.5660527303765388</v>
+        <v>-0.5660527303765397</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8805264694746171, -0.2515789912784605]</t>
+          <t>[-0.8176317216550011, -0.3144737390980783]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0007318399841123036</v>
+        <v>4.294577757657514e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0007318399841123036</v>
+        <v>4.294577757657514e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>50.34361613189154</v>
+        <v>50.99573008041484</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[41.75445688593147, 58.93277537785162]</t>
+          <t>[43.24998987921005, 58.74147028161963]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2.309909909909958</v>
+        <v>2.322522522522579</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.026626626626643</v>
+        <v>1.290290290290325</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.593193193193274</v>
+        <v>3.354754754754833</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.64000000000057</v>
+        <v>25.78000000000059</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.005906551971748e-11</v>
+        <v>3.130384840233091e-12</v>
       </c>
       <c r="I10" t="n">
-        <v>2.005906551971748e-11</v>
+        <v>3.130384840233091e-12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>52.32729468126106</v>
+        <v>55.07847438802241</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[37.14605766050899, 67.50853170201313]</t>
+          <t>[39.83819773314855, 70.31875104289627]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.240985780803783e-08</v>
+        <v>3.937494774675088e-09</v>
       </c>
       <c r="O10" t="n">
-        <v>1.240985780803783e-08</v>
+        <v>3.937494774675088e-09</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.069210712933463</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.3836844520315408, -0.754736973835386]</t>
+          <t>[-1.3207897042119257, -0.767315923399309]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.713196517982851e-08</v>
+        <v>1.331338816967786e-09</v>
       </c>
       <c r="S10" t="n">
-        <v>1.713196517982851e-08</v>
+        <v>1.331338816967786e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>48.72492385553781</v>
+        <v>50.9543976169638</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.584368447780726, 56.865479263294894]</t>
+          <t>[42.86395983319857, 59.044835400729035]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>4.363163163163261</v>
+        <v>4.283763763763865</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.079879879879949</v>
+        <v>3.148308308308382</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.646446446446573</v>
+        <v>5.419219219219348</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_8_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_8_square_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.76000000000043</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.312217249946571e-12</v>
+        <v>3.885780586188048e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>4.312217249946571e-12</v>
+        <v>3.885780586188048e-14</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>60.26446669594556</v>
+        <v>61.40037134100746</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[46.65140382809224, 73.87752956379887]</t>
+          <t>[50.04574804699067, 72.75499463502425]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.66378022470326e-11</v>
+        <v>3.352873534367973e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66378022470326e-11</v>
+        <v>3.352873534367973e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.616395018964117</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.8679740102425795]</t>
+          <t>[1.377394977249578, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.74910522302656</v>
+        <v>54.9521511518907</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.9888845409387, 62.50932590511442]</t>
+          <t>[47.24535009843266, 62.65895220534873]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.39031031031063</v>
+        <v>18.46704704704737</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.39891891891922</v>
+        <v>17.62538538538569</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.38170170170204</v>
+        <v>19.30870870870904</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.76000000000043</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>1.366129431801255e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>1.366129431801255e-12</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>58.39243796071343</v>
+        <v>50.00758743571059</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[46.086541846239285, 70.69833407518757]</t>
+          <t>[39.133583225032595, 60.881591646388586]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.108091479158247e-12</v>
+        <v>5.417888360170764e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>2.108091479158247e-12</v>
+        <v>5.417888360170764e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.289342330302117</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 1.5157634224527312]</t>
+          <t>[1.2138686329185786, 1.7170266154755032]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>54.120657400825</v>
+        <v>52.22773503425969</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.205736095946946, 61.035578705703045]</t>
+          <t>[45.233743426946184, 59.22172664157319]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.67911911911946</v>
+        <v>18.96214214214247</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.7868668668672</v>
+        <v>17.97195195195226</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.57137137137173</v>
+        <v>19.95233233233268</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.76000000000043</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.583488978302739e-13</v>
+        <v>3.984368390774762e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.583488978302739e-13</v>
+        <v>3.984368390774762e-12</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>61.913232321692</v>
+        <v>56.26416075000282</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[47.66963755438782, 76.15682708899618]</t>
+          <t>[42.62878761753282, 69.89953388247281]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.82167622600582e-11</v>
+        <v>1.221525103289878e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>2.82167622600582e-11</v>
+        <v>1.221525103289878e-10</v>
       </c>
       <c r="P4" t="n">
-        <v>1.301921279866041</v>
+        <v>1.37739497724958</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 1.553500271144503]</t>
+          <t>[1.1258159859711165, 1.6289739685280429]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.396660564978447e-13</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>1.396660564978447e-13</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>52.54860027007838</v>
+        <v>52.52328051411791</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.35061201124144, 60.746588528915325]</t>
+          <t>[44.40133344904211, 60.6452275791937]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>19.62954954954989</v>
+        <v>19.30870870870904</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.63815815815848</v>
+        <v>18.31851851851883</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.6209409409413</v>
+        <v>20.29889889889925</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.76000000000043</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.061369880872576e-10</v>
+        <v>7.576161920042068e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>1.061369880872576e-10</v>
+        <v>7.576161920042068e-13</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>58.90899099554235</v>
+        <v>56.77412836383466</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[40.93286384702785, 76.88511814405683]</t>
+          <t>[42.42541807351716, 71.12283865415216]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.997743314165803e-08</v>
+        <v>3.820892491290806e-10</v>
       </c>
       <c r="O5" t="n">
-        <v>3.997743314165803e-08</v>
+        <v>3.820892491290806e-10</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9622896416401163</v>
+        <v>1.050342288587577</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6603948521059619, 1.2641844311742707]</t>
+          <t>[0.7861843477451931, 1.314500229429962]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.416098868340271e-08</v>
+        <v>3.350744126606742e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>7.416098868340271e-08</v>
+        <v>3.350744126606742e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>56.94136387705253</v>
+        <v>51.65108189736945</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.55478097803929, 66.32794677606577]</t>
+          <t>[43.9363718836406, 59.365791911098306]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>20.96792792792829</v>
+        <v>20.59595595595631</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.7782582582586</v>
+        <v>19.5562562562566</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.15759759759798</v>
+        <v>21.63565565565603</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.78000000000059</v>
+        <v>25.79000000000059</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.837574785199195e-12</v>
+        <v>5.640710121213033e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>4.837574785199195e-12</v>
+        <v>5.640710121213033e-12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>55.25573442890708</v>
+        <v>58.63934797811476</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[40.152743394949375, 70.35872546286478]</t>
+          <t>[42.904806629701014, 74.37388932652851]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.901709539315789e-09</v>
+        <v>1.820952055808789e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>2.901709539315789e-09</v>
+        <v>1.820952055808789e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>0.748447499053424</v>
+        <v>0.672973801669885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 1.0126054398958093]</t>
+          <t>[0.39623691126357574, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>1.291226693789227e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>1.291226693789227e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>53.77337112878034</v>
+        <v>55.68312653573272</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.009154790192085, 61.537587467368596]</t>
+          <t>[47.442119048193874, 63.92413402327156]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>22.70910910910963</v>
+        <v>23.02770770770824</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.62526526526576</v>
+        <v>21.89181181181231</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.7929529529535</v>
+        <v>24.16360360360417</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.78000000000059</v>
+        <v>25.79000000000059</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.907185768843192e-14</v>
+        <v>8.324452238639424e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>4.907185768843192e-14</v>
+        <v>8.324452238639424e-13</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>64.0292610328674</v>
+        <v>60.87202312512473</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[50.2086713060349, 77.84985075969989]</t>
+          <t>[46.04276864762143, 75.70127760262804]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.344524739963163e-12</v>
+        <v>1.410480621188981e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>4.344524739963163e-12</v>
+        <v>1.410480621188981e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3333421634439615</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.10692107129334527, 0.5597632555945777]</t>
+          <t>[0.14465791998511612, 0.6226580034141929]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.004825303314059726</v>
+        <v>0.002294597006178956</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004825303314059726</v>
+        <v>0.002294597006178956</v>
       </c>
       <c r="T7" t="n">
-        <v>56.35304360778357</v>
+        <v>55.65138801049059</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.67298983912369, 64.03309737644345]</t>
+          <t>[47.68947190483212, 63.61330411614905]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>24.41229229229285</v>
+        <v>24.21523523523579</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.48328328328382</v>
+        <v>23.23423423423477</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.34130130130189</v>
+        <v>25.19623623623681</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.78000000000059</v>
+        <v>25.79000000000059</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.389999226830696e-13</v>
+        <v>1.011202233058839e-11</v>
       </c>
       <c r="I8" t="n">
-        <v>1.389999226830696e-13</v>
+        <v>1.011202233058839e-11</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>63.80360675370871</v>
+        <v>61.94441396525612</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[51.24117461331906, 76.36603889409837]</t>
+          <t>[47.8582366209139, 76.03059130959835]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.542410726391608e-13</v>
+        <v>2.018896161359862e-11</v>
       </c>
       <c r="O8" t="n">
-        <v>2.542410726391608e-13</v>
+        <v>2.018896161359862e-11</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0503157982556921</v>
+        <v>-0.1383684452031542</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.25786846606042246, 0.15723686954903826]</t>
+          <t>[-0.37736848691769254, 0.1006315965113842]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6277312811237863</v>
+        <v>0.24973333819303</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6277312811237863</v>
+        <v>0.24973333819303</v>
       </c>
       <c r="T8" t="n">
-        <v>61.76932896621931</v>
+        <v>55.8916110230503</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.80341070927143, 69.73524722316718]</t>
+          <t>[46.995925429999204, 64.78729661610139]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2064464464464528</v>
+        <v>0.5679479479479603</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.6451451451451554</v>
+        <v>-0.4130530530530614</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058038038038061</v>
+        <v>1.548948948948982</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.78000000000059</v>
+        <v>25.79000000000059</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.871036741680655e-13</v>
+        <v>3.15636405900932e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>2.871036741680655e-13</v>
+        <v>3.15636405900932e-13</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>58.51066702663084</v>
+        <v>55.93310479000336</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[44.233884771673175, 72.78744928158851]</t>
+          <t>[41.497554625970096, 70.36865495403661]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.473792199391255e-10</v>
+        <v>6.658331663800254e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.473792199391255e-10</v>
+        <v>6.658331663800254e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.5660527303765397</v>
+        <v>-0.5534737808126167</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, -0.3144737390980783]</t>
+          <t>[-0.8176317216550011, -0.28931583997023225]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.294577757657514e-05</v>
+        <v>0.0001168291671478361</v>
       </c>
       <c r="S9" t="n">
-        <v>4.294577757657514e-05</v>
+        <v>0.0001168291671478361</v>
       </c>
       <c r="T9" t="n">
-        <v>50.99573008041484</v>
+        <v>52.54250397310985</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.24998987921005, 58.74147028161963]</t>
+          <t>[45.118556753107335, 59.96645119311237]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2.322522522522579</v>
+        <v>2.271791791791845</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.290290290290325</v>
+        <v>1.187527527527558</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.354754754754833</v>
+        <v>3.356056056056132</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.78000000000059</v>
+        <v>25.79000000000059</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.130384840233091e-12</v>
+        <v>4.118927421359331e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>3.130384840233091e-12</v>
+        <v>4.118927421359331e-14</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>55.07847438802241</v>
+        <v>60.00109867074284</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[39.83819773314855, 70.31875104289627]</t>
+          <t>[46.40901290103571, 73.59318444044997]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.937494774675088e-09</v>
+        <v>1.806732541353995e-11</v>
       </c>
       <c r="O10" t="n">
-        <v>3.937494774675088e-09</v>
+        <v>1.806732541353995e-11</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.044052813805617</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.3207897042119257, -0.767315923399309]</t>
+          <t>[-1.3333686537758478, -0.855368570346771]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.331338816967786e-09</v>
+        <v>6.163958232718869e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>1.331338816967786e-09</v>
+        <v>6.163958232718869e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>50.9543976169638</v>
+        <v>51.32764839616506</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.86395983319857, 59.044835400729035]</t>
+          <t>[43.60367176032291, 59.05162503200721]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>4.283763763763865</v>
+        <v>4.491951951952057</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.148308308308382</v>
+        <v>3.510950950951035</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.419219219219348</v>
+        <v>5.472952952953078</v>
       </c>
     </row>
   </sheetData>
